--- a/src/main/webapp/WEB-INF/message管理.xlsx
+++ b/src/main/webapp/WEB-INF/message管理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ikeda_work\社内開発\01_文書管理システム\02_開発環境構築\ソース_20210911\ibiDoc\WebContent\WEB-INF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\a-tomia\ibint\pleiades\2022\workspace\ibiDoc\src\main\webapp\WEB-INF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EFF0FE-1916-4B01-81CF-E9EAA11165E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE2C93B-A3D3-488D-9770-7F2795FA8F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="message_ja.properties" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>message_ja.properties</t>
   </si>
@@ -278,6 +278,34 @@
   </si>
   <si>
     <t>有効期限の開始日が終了日を上回っています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>msg0006_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象文書が存在しません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a.t</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有効期限は必須です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文書ファイル名は35文字以内にしてください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>msg0005_013</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>msg0005_012</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -627,26 +655,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="26.4140625" customWidth="1"/>
-    <col min="3" max="3" width="51.9140625" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="26.3984375" customWidth="1"/>
+    <col min="3" max="3" width="51.8984375" customWidth="1"/>
+    <col min="4" max="4" width="18.796875" customWidth="1"/>
+    <col min="6" max="6" width="14.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -663,7 +691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -678,7 +706,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -693,7 +721,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -708,7 +736,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -723,7 +751,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
@@ -738,7 +766,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
@@ -753,7 +781,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
@@ -768,7 +796,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
@@ -783,7 +811,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
@@ -798,7 +826,7 @@
         <v>44331</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
@@ -813,7 +841,7 @@
         <v>44331</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
@@ -828,7 +856,7 @@
         <v>44331</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
@@ -843,7 +871,7 @@
         <v>44338</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
@@ -858,7 +886,7 @@
         <v>44338</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
@@ -873,7 +901,7 @@
         <v>44338</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>34</v>
       </c>
@@ -888,7 +916,7 @@
         <v>44338</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
@@ -903,7 +931,7 @@
         <v>44338</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>36</v>
       </c>
@@ -918,7 +946,7 @@
         <v>44338</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
@@ -933,7 +961,7 @@
         <v>44339</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
@@ -946,6 +974,51 @@
       </c>
       <c r="F22" s="3">
         <v>44358</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="3">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="3">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="3">
+        <v>45817</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/WEB-INF/message管理.xlsx
+++ b/src/main/webapp/WEB-INF/message管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\a-tomia\ibint\pleiades\2022\workspace\ibiDoc\src\main\webapp\WEB-INF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE2C93B-A3D3-488D-9770-7F2795FA8F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1944A930-7495-4B60-B62E-43CAA8FC66FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
   <si>
     <t>message_ja.properties</t>
   </si>
@@ -306,6 +306,14 @@
   </si>
   <si>
     <t>msg0005_012</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前回登録した内容です。更新する場合はファイル名または有効期限を変更してください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>msg0007_001</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -655,16 +663,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="26.3984375" customWidth="1"/>
-    <col min="3" max="3" width="51.8984375" customWidth="1"/>
+    <col min="3" max="3" width="73.296875" customWidth="1"/>
     <col min="4" max="4" width="18.796875" customWidth="1"/>
     <col min="6" max="6" width="14.19921875" customWidth="1"/>
   </cols>
@@ -1021,6 +1029,21 @@
         <v>45817</v>
       </c>
     </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="3">
+        <v>45828</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/webapp/WEB-INF/message管理.xlsx
+++ b/src/main/webapp/WEB-INF/message管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\a-tomia\ibint\pleiades\2022\workspace\ibiDoc\src\main\webapp\WEB-INF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1944A930-7495-4B60-B62E-43CAA8FC66FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D093BAAB-D9FD-419E-9525-0F87DB2FC929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="message_ja.properties" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>message_ja.properties</t>
   </si>
@@ -306,14 +306,6 @@
   </si>
   <si>
     <t>msg0005_012</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>前回登録した内容です。更新する場合はファイル名または有効期限を変更してください。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>msg0007_001</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -663,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1029,21 +1021,6 @@
         <v>45817</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="3">
-        <v>45828</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
